--- a/02_MasterWifoMannheim/03_Courses/Course171.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course171.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_2B59D2BFD3D05905DB9B361159A6E0F560B9E106" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E59D54-8A96-4A42-9A63-04ED817A21A8}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_2B59D2BFD3D05905DB9B361159A6E0F560B9E106" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9587CD2A-C61E-4CED-9B68-A64FCE4F1827}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="1500" windowWidth="21600" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>TP 500</t>
   </si>
@@ -151,13 +151,19 @@
     <t>1st/2nd/3rd semester</t>
   </si>
   <si>
+    <t>Successor</t>
+  </si>
+  <si>
+    <t>Not Taken</t>
+  </si>
+  <si>
     <t>Team Project Split 1</t>
   </si>
   <si>
-    <t>Successor</t>
-  </si>
-  <si>
     <t>TP 500 Team Project Split 2</t>
+  </si>
+  <si>
+    <t>TP 500 Team Project Full</t>
   </si>
 </sst>
 </file>
@@ -521,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,10 +585,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -600,129 +606,137 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>42</v>
       </c>
     </row>
